--- a/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A902BFD-7BCB-411D-80B9-D938D89344E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{039E04BE-87CA-46D0-A4A7-2D5B5101F665}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
         <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>

--- a/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{039E04BE-87CA-46D0-A4A7-2D5B5101F665}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7469E287-F2AF-4E1A-8FF2-578A7EF03609}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7469E287-F2AF-4E1A-8FF2-578A7EF03609}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62A52AFA-E711-49AD-8B46-B9E7A6594057}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>SUCESSO</t>
+  </si>
+  <si>
+    <t>4073020000000000</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +526,7 @@
         <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -542,8 +545,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>4073020000000000</v>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>50670160</v>

--- a/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62A52AFA-E711-49AD-8B46-B9E7A6594057}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE9BA278-80C1-4B3F-99C0-B0AC78D2E913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
         <v>298</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -561,7 +561,7 @@
         <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>

--- a/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
+++ b/main/bin/Debug/ArquivosDados/CadastroProfissional.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE9BA278-80C1-4B3F-99C0-B0AC78D2E913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7469E287-F2AF-4E1A-8FF2-578A7EF03609}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
   <si>
     <t xml:space="preserve">Nome </t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>SUCESSO</t>
-  </si>
-  <si>
-    <t>4073020000000000</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,8 +542,8 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
+      <c r="C3" s="5">
+        <v>4073020000000000</v>
       </c>
       <c r="D3" s="1">
         <v>50670160</v>
@@ -561,7 +558,7 @@
         <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
